--- a/biology/Médecine/Artère_grande_palatine/Artère_grande_palatine.xlsx
+++ b/biology/Médecine/Artère_grande_palatine/Artère_grande_palatine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_grande_palatine</t>
+          <t>Artère_grande_palatine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère grande palatine (ou grande artère palatine) est une branche de l'artère palatine descendante (une branche terminale de l'artère maxillaire ) et contribue à l’irrigation du palais dur et de la cloison nasale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_grande_palatine</t>
+          <t>Artère_grande_palatine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère grande palatine nait de l'artère palatine descendante après son passage par le canal grand palatin. Elle se poursuit vers l'avant en longeant la voute palatine en irrigant le palais dur.
 Elle s'anastomose avec l'artère grande palatine contro-latérale puis traverse le canal incisif puis elle s'anastomose avec l'artère sphénopalatine pour irriguer le septum nasal.
